--- a/Module 15 - Evaluating audit evidence and completion procedures.xlsx
+++ b/Module 15 - Evaluating audit evidence and completion procedures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/AD/Bob's Class notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="264" documentId="8_{FCF25A7E-4FAA-40DF-98AA-5D30C3F73F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35F74794-89E4-403E-8C45-18F244EB4B65}"/>
+  <xr:revisionPtr revIDLastSave="323" documentId="8_{FCF25A7E-4FAA-40DF-98AA-5D30C3F73F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EE0BE78-20DC-4001-BDAB-4D63EEF7EAB2}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1170" windowWidth="28800" windowHeight="14370" activeTab="1" xr2:uid="{C591BF33-133C-4311-90E0-CDEAB7A23E15}"/>
+    <workbookView xWindow="16380" yWindow="2085" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{C591BF33-133C-4311-90E0-CDEAB7A23E15}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="198">
   <si>
     <t>Main</t>
   </si>
@@ -842,6 +842,153 @@
   </si>
   <si>
     <t>Check the redundancy notices to check actually happened in the year.</t>
+  </si>
+  <si>
+    <t>Evaluating the sufficiency and appropriateness of audit evidence</t>
+  </si>
+  <si>
+    <t>Final analytical procedures - (CAP)</t>
+  </si>
+  <si>
+    <t>Management Represenation letter</t>
+  </si>
+  <si>
+    <t>Concerns</t>
+  </si>
+  <si>
+    <t>if a representation is inconsistent with other audit evidence</t>
+  </si>
+  <si>
+    <t>the auditor should change approach and investigate the circumstances and, when necessary, reconsider the reliability of the other representatoins</t>
+  </si>
+  <si>
+    <t>where mgmt refuses to provide a representation that the auditor consideres necessary, this constitutes a limitation of scope and the auditor should disclaim an opinion.</t>
+  </si>
+  <si>
+    <t>Failure to provide representations on mgmt's responsibitlies for the financial statements as a whole is prevasive</t>
+  </si>
+  <si>
+    <t>Activity 4</t>
+  </si>
+  <si>
+    <t>Activity 4: Letter of representation</t>
+  </si>
+  <si>
+    <t>There are several items that the letter of representation should include as a matter of</t>
+  </si>
+  <si>
+    <t>course that could be implied from this scenario:</t>
+  </si>
+  <si>
+    <t>• Responsibilities for producing the financial statements</t>
+  </si>
+  <si>
+    <t>• That management have provided all relevant information and access</t>
+  </si>
+  <si>
+    <t>• That all transactions have been recorded and are reflected</t>
+  </si>
+  <si>
+    <t>However, there are specific issues that are more likely to need to be addressed</t>
+  </si>
+  <si>
+    <t>which you should focus on:</t>
+  </si>
+  <si>
+    <t>• As Felix holds financial instruments, any significant assumptions in valuing</t>
+  </si>
+  <si>
+    <t>these should be confirmed by Felix as being reasonable.</t>
+  </si>
+  <si>
+    <t>• The misstated inventory balances are not material so will not affect the audit</t>
+  </si>
+  <si>
+    <t>opinion in isolation. However, the auditor needs to ensure that Felix confirms</t>
+  </si>
+  <si>
+    <t>that the effects of such uncorrected misstatements are immaterial, both</t>
+  </si>
+  <si>
+    <t>individually and in aggregate, to the financial statements as a whole. A list of</t>
+  </si>
+  <si>
+    <t>uncorrected misstatements also needs to be attached to the representation</t>
+  </si>
+  <si>
+    <t>letter.</t>
+  </si>
+  <si>
+    <t>• Felix should obtain acknowledgement of management’s responsibility with</t>
+  </si>
+  <si>
+    <t>regards to the prevention and detection of fraud, fraud risk assessment and</t>
+  </si>
+  <si>
+    <t>confirmation that identified/alleged/suspected fraud has been disclosed to the</t>
+  </si>
+  <si>
+    <t>auditor.</t>
+  </si>
+  <si>
+    <t>Audit highlights or summary review memorandum</t>
+  </si>
+  <si>
+    <t>General points that can be considered include the following:</t>
+  </si>
+  <si>
+    <t>• Whether the work has been performed in accordance with the firm’s policies</t>
+  </si>
+  <si>
+    <t>and procedures and other professional standards and legal and regulatory</t>
+  </si>
+  <si>
+    <t>requirements</t>
+  </si>
+  <si>
+    <t>• Whether significant matters have been raised for further consideration</t>
+  </si>
+  <si>
+    <t>• Whether appropriate consultations have taken place, and resulting conclusions</t>
+  </si>
+  <si>
+    <t>documented and implemented</t>
+  </si>
+  <si>
+    <t>• Whether there is a need to revise the work performed</t>
+  </si>
+  <si>
+    <t>• Whether the work performed supports the conclusions reached and is</t>
+  </si>
+  <si>
+    <t>appropriately documented</t>
+  </si>
+  <si>
+    <t>• Whether the evidence obtained is sufficient and appropriate</t>
+  </si>
+  <si>
+    <t>• Whether the objectives of the audit procedures have been achieved</t>
+  </si>
+  <si>
+    <t>ISA 220 - Quallity Control procedures</t>
+  </si>
+  <si>
+    <t>This should include:</t>
+  </si>
+  <si>
+    <t>• Significant matters</t>
+  </si>
+  <si>
+    <t>• Significant judgements</t>
+  </si>
+  <si>
+    <t>• Any other matters deemed relevant by the engagement partner</t>
+  </si>
+  <si>
+    <t>Engagment partner review</t>
+  </si>
+  <si>
+    <t>EQR reuired for listed entities</t>
   </si>
 </sst>
 </file>
@@ -1382,6 +1529,226 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>351</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1479</xdr:colOff>
+      <xdr:row>361</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84BE33BA-20C0-CF1A-71C4-7398617BF1AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="608135" y="54080019"/>
+          <a:ext cx="3650286" cy="1538654"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>361</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>390</xdr:row>
+      <xdr:rowOff>55594</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3B5F9DB-B1D8-6D9B-7122-275506F8C445}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="608135" y="55618673"/>
+          <a:ext cx="3648807" cy="4517690"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>400</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>405</xdr:row>
+      <xdr:rowOff>78946</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{068DC6A0-7ACC-C953-2796-73FD4CB26FA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619126" y="57245250"/>
+          <a:ext cx="3714750" cy="793321"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>431</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>445</xdr:row>
+      <xdr:rowOff>87511</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35EEA5CA-A633-849F-AC1E-77E070462820}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="608135" y="66389252"/>
+          <a:ext cx="3648807" cy="2241624"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>448</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>461</xdr:row>
+      <xdr:rowOff>31809</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFD05091-4712-AAE0-7037-216255B74AEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="608136" y="69004962"/>
+          <a:ext cx="3648806" cy="2032059"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1709,10 +2076,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C58438C9-1ABA-4D7D-8B20-8F8FEA496022}">
-  <dimension ref="A1:E320"/>
+  <dimension ref="A1:E484"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A304" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E318" sqref="E318"/>
+    <sheetView tabSelected="1" topLeftCell="A439" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B485" sqref="B485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2499,6 +2866,251 @@
         <v>148</v>
       </c>
     </row>
+    <row r="346" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B346" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="348" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B348" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="350" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B350" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="394" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B394" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="395" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B395" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="396" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B396" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="397" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B397" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="398" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B398" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="409" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B409" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="411" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B411" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="412" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B412" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="413" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B413" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="414" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B414" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="415" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B415" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="416" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B416" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="417" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B417" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="418" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B418" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="419" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B419" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="420" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B420" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="421" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B421" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="422" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B422" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="423" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B423" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="424" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B424" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="425" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B425" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="426" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B426" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="427" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B427" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="428" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B428" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="429" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B429" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="430" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B430" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="447" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B447" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="463" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B463" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="465" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B465" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="466" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B466" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="467" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B467" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="468" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B468" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="469" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B469" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="470" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B470" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="471" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B471" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="472" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B472" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="473" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B473" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="474" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B474" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="475" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B475" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="476" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B476" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="478" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B478" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="479" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B479" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="480" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B480" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="481" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B481" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="482" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B482" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="484" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B484" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{05508552-074F-4C64-9FC6-C683EFCF69C4}"/>

--- a/Module 15 - Evaluating audit evidence and completion procedures.xlsx
+++ b/Module 15 - Evaluating audit evidence and completion procedures.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/AD/Bob's Class notes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/AD/Bob's AD Class notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="323" documentId="8_{FCF25A7E-4FAA-40DF-98AA-5D30C3F73F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EE0BE78-20DC-4001-BDAB-4D63EEF7EAB2}"/>
+  <xr:revisionPtr revIDLastSave="329" documentId="8_{FCF25A7E-4FAA-40DF-98AA-5D30C3F73F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D076290-FD6F-4144-9D55-DAAEB53D8B97}"/>
   <bookViews>
-    <workbookView xWindow="16380" yWindow="2085" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{C591BF33-133C-4311-90E0-CDEAB7A23E15}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C591BF33-133C-4311-90E0-CDEAB7A23E15}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="202">
   <si>
     <t>Main</t>
   </si>
@@ -989,6 +989,18 @@
   </si>
   <si>
     <t>EQR reuired for listed entities</t>
+  </si>
+  <si>
+    <t>Empahais of matter</t>
+  </si>
+  <si>
+    <t>key audit matter - listed and PIE only</t>
+  </si>
+  <si>
+    <t>Going concern</t>
+  </si>
+  <si>
+    <t>Other information</t>
   </si>
 </sst>
 </file>
@@ -1093,13 +1105,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>30659</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1137,13 +1149,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>131990</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1181,13 +1193,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>57593</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1225,13 +1237,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>53348</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1269,13 +1281,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>221</xdr:row>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>223</xdr:row>
+      <xdr:row>228</xdr:row>
       <xdr:rowOff>90996</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1313,13 +1325,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>225</xdr:row>
+      <xdr:row>230</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>232</xdr:row>
+      <xdr:row>237</xdr:row>
       <xdr:rowOff>114037</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1357,13 +1369,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>234</xdr:row>
+      <xdr:row>239</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>244</xdr:row>
+      <xdr:row>249</xdr:row>
       <xdr:rowOff>42558</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1401,13 +1413,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>593912</xdr:colOff>
-      <xdr:row>256</xdr:row>
+      <xdr:row>261</xdr:row>
       <xdr:rowOff>123264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>272</xdr:row>
+      <xdr:row>277</xdr:row>
       <xdr:rowOff>68776</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1445,13 +1457,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>283</xdr:row>
+      <xdr:row>288</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>297</xdr:row>
+      <xdr:row>302</xdr:row>
       <xdr:rowOff>8881</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1489,13 +1501,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>322</xdr:row>
+      <xdr:row>327</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>342</xdr:row>
+      <xdr:row>347</xdr:row>
       <xdr:rowOff>12223</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1533,13 +1545,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>351</xdr:row>
+      <xdr:row>356</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1479</xdr:colOff>
-      <xdr:row>361</xdr:row>
+      <xdr:row>366</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1577,13 +1589,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>361</xdr:row>
+      <xdr:row>366</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>390</xdr:row>
+      <xdr:row>395</xdr:row>
       <xdr:rowOff>55594</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1621,13 +1633,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>400</xdr:row>
+      <xdr:row>405</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>405</xdr:row>
+      <xdr:row>410</xdr:row>
       <xdr:rowOff>78946</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1665,13 +1677,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>431</xdr:row>
+      <xdr:row>436</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>445</xdr:row>
+      <xdr:row>450</xdr:row>
       <xdr:rowOff>87511</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1709,13 +1721,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>448</xdr:row>
+      <xdr:row>453</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>461</xdr:row>
+      <xdr:row>466</xdr:row>
       <xdr:rowOff>31809</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2076,10 +2088,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C58438C9-1ABA-4D7D-8B20-8F8FEA496022}">
-  <dimension ref="A1:E484"/>
+  <dimension ref="A1:E489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A439" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B485" sqref="B485"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2097,1017 +2109,1040 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>7</v>
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="s">
-        <v>9</v>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
-        <v>10</v>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B16" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B26" s="1" t="s">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B39" s="1" t="s">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B40" s="1" t="s">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B41" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B42" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B43" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B49" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B50" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B59" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B60" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B62" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B69" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B74" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B75" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B76" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B77" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B78" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B76" s="4" t="s">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B81" s="4" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B104" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B105" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B106" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B107" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B108" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B109" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B110" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B111" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B112" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B113" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B114" s="1" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B115" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B116" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B119" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B120" s="1" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B134" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B136" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B137" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B139" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B140" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B141" s="1" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B142" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B143" s="1" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B144" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B145" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B146" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B147" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B148" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B149" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B150" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="151" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B151" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B153" s="1" t="s">
-        <v>62</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B152" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B154" s="1" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B155" s="1" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B156" s="1" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
     <row r="158" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B158" s="1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="159" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B159" s="1" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
     </row>
     <row r="160" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B160" s="1" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B161" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B162" s="1" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="163" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B163" s="1" t="s">
-        <v>91</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B164" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="165" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B165" s="1" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B166" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="167" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B167" s="5" t="s">
-        <v>105</v>
+      <c r="B167" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="168" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B168" s="5" t="s">
-        <v>106</v>
+      <c r="B168" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="170" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B170" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="171" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B171" s="1" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
     </row>
     <row r="172" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B172" s="1" t="s">
-        <v>68</v>
+      <c r="B172" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="173" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B173" s="1" t="s">
-        <v>69</v>
+      <c r="B173" s="5" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="175" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B175" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="176" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B176" s="1" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B177" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B179" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B178" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="180" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B180" s="1" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
     </row>
     <row r="181" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B181" s="5" t="s">
-        <v>107</v>
+      <c r="B181" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="182" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B182" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B183" s="5"/>
+      <c r="B182" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="184" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B184" s="5"/>
+      <c r="B184" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="185" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B185" s="1" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
     </row>
     <row r="186" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B186" s="1" t="s">
-        <v>71</v>
+      <c r="B186" s="5" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="187" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B187" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="B187" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B188" s="5"/>
     </row>
     <row r="189" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B189" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="B189" s="5"/>
     </row>
     <row r="190" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B190" s="1" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
     </row>
     <row r="191" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B191" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B193" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B192" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="194" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B194" s="1" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
     </row>
     <row r="195" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B195" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="196" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B196" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B197" s="1" t="s">
-        <v>111</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B198" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="199" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B199" s="1" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
     </row>
     <row r="200" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B200" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="201" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B201" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="202" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B202" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B203" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="204" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B204" s="1" t="s">
-        <v>109</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B205" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="206" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B206" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="207" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B207" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="208" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B208" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B209" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B211" s="1" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B212" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="213" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B213" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B216" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B217" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B218" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B221" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B222" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B219" s="1" t="s">
+    <row r="224" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B224" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B220" s="1" t="s">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B225" s="1" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B248" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B250" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B251" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B252" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="253" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B253" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B254" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="255" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B255" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="256" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B256" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B257" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B258" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B259" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B260" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B261" s="1" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B276" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B277" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B278" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B280" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="281" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B281" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="282" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B282" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B283" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="285" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B285" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="286" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B286" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="287" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B287" s="1" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="299" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B299" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="302" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B302" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="303" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B303" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="304" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B304" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="307" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B307" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="308" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B308" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="309" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B309" s="1" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="305" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B305" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E305" s="3" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="310" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B310" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="311" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B311" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="314" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B314" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
+      </c>
+      <c r="E310" s="3" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="315" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B315" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="316" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B316" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="317" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B317" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="318" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B318" s="1" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="319" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B319" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="320" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B320" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="321" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B321" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="322" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B322" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="323" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B323" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="324" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B324" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="325" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B325" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="346" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B346" s="1" t="s">
+    <row r="351" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B351" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="348" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B348" s="4" t="s">
+    <row r="353" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B353" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="350" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B350" s="1" t="s">
+    <row r="355" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B355" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="394" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B394" s="4" t="s">
+    <row r="399" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B399" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="395" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B395" s="1" t="s">
+    <row r="400" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B400" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="396" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B396" s="1" t="s">
+    <row r="401" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B401" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="397" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B397" s="1" t="s">
+    <row r="402" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B402" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="398" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B398" s="1" t="s">
+    <row r="403" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B403" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="409" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B409" s="4" t="s">
+    <row r="414" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B414" s="4" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="411" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B411" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="412" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B412" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="413" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B413" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="414" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B414" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="415" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B415" s="1" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="416" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B416" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="417" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B417" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="418" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B418" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="419" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B419" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="420" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B420" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="421" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B421" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="422" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B422" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="423" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B423" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="424" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B424" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="425" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B425" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="426" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B426" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="427" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B427" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="428" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B428" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="429" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B429" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="430" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B430" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="431" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B431" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="432" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B432" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="433" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B433" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="434" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B434" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="435" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B435" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="447" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B447" s="4" t="s">
+    <row r="452" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B452" s="4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="463" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B463" s="4" t="s">
+    <row r="468" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B468" s="4" t="s">
         <v>191</v>
-      </c>
-    </row>
-    <row r="465" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B465" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="466" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B466" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="467" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B467" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="468" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B468" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="469" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B469" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="470" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B470" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="471" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B471" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="472" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B472" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="473" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B473" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="474" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B474" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="475" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B475" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="476" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B476" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="477" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B477" s="1" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="478" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B478" s="4" t="s">
-        <v>196</v>
+      <c r="B478" s="1" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="479" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B479" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="480" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B480" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="481" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B481" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="482" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B482" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="483" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B483" s="4" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="484" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B484" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="485" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B485" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="486" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B486" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="487" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B487" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="489" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B489" s="1" t="s">
         <v>197</v>
       </c>
     </row>
